--- a/test_file/meiYe.xlsx
+++ b/test_file/meiYe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="1110" windowWidth="11190" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="1116" windowWidth="11196" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
@@ -368,19 +368,19 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="G9" pane="bottomLeft" sqref="G9"/>
+      <selection activeCell="B2" pane="bottomLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="16" defaultRowHeight="22.9"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="16" defaultRowHeight="22.95"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="38.875"/>
-    <col customWidth="1" max="5" min="5" width="47.875"/>
-    <col customWidth="1" max="8" min="8" width="89.375"/>
+    <col customWidth="1" max="3" min="3" width="38.88671875"/>
+    <col customWidth="1" max="5" min="5" width="47.88671875"/>
+    <col customWidth="1" max="8" min="8" width="89.33203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.9" r="1">
+    <row customHeight="1" ht="22.95" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Id</t>
@@ -422,13 +422,13 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="22.9" r="2">
+    <row customHeight="1" ht="22.95" r="2">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>登录接口</t>
+          <t>登录</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -461,13 +461,13 @@
       </c>
       <c r="I2" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="22.9" r="3">
+    <row customHeight="1" ht="22.95" r="3">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>登录接口</t>
+          <t>login</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -490,23 +490,23 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>{'status': 200, 'message': 'OK', 'data': {'systemUserVO': {'id': '75ac1fd4f7cc427382e91e225f6681e1', 'gmtCreate': '2019-01-23 16:45:48', 'gmtModified': '2019-02-26 09:49:48', 'isDeleted': 0, 'isValid': 1, 'shopId': 'd90c7afd096e473e92bc3342bb6be43f', 'userCreate': '453a21c19e6543478dabc90342507037', 'userModified': '75ac1fd4f7cc427382e91e225f6681e1', 'roleId': None, 'roleName': None, 'userName': '测试1', 'userNumber': 1, 'userPhone': '13119656020', 'userRemark': '', 'isAdmin': 1}, 'systemShopVO': {'id': 'd90c7afd096e473e92bc3342bb6be43f', 'gmtCreate': '2019-01-23 16:45:48', 'gmtModified': '2019-02-26 13:57:12', 'isDeleted': 0, 'isValid': 1, 'isHeadquarters': 0, 'userShopId': 'd90c7afd096e473e92bc3342bb6be43f', 'shopUserCreate': '453a21c19e6543478dabc90342507037', 'shopUserModified': '75ac1fd4f7cc427382e91e225f6681e1', 'shopName': '广州荔湾', 'shopKeyname': '纤体', 'shopNumber': 3, 'userId': '75ac1fd4f7cc427382e91e225f6681e1', 'userName': '测试1', 'userPhone': '13119656020', 'shopProvince': '6', 'areaName': '广东省', 'shopAddress': '花地大道南', 'shopAchievementRule': 1, 'showShopNumber': '纤体-003'}, 'systemRoleVO': {'id': '3957b652a6214c0093f03826ee842e06', 'gmtCreate': '2019-01-23 16:45:48', 'gmtModified': '2019-01-24 17:32:38', 'isAllowUpdate': 0, 'isDeleted': 0, 'roleName': '默认权限', 'roleRemark': '', 'shopId': 'd90c7afd096e473e92bc3342bb6be43f', 'userCreate': '453a21c19e6543478dabc90342507037', 'userModified': '75ac1fd4f7cc427382e91e225f6681e1'}, 'isResetPassword': False, 'systemMenus': [{'id': '1', 'gmtCreate': '2018-09-06 14:22:51', 'gmtModified': '2018-09-06 14:22:51', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': '', 'menuName': '顶级', 'menuNavigateUrl': '/layout', 'menuRemark': '', 'menuSort': 1, 'parentId': '', 'userCreate': None, 'userModified': '1234', 'childrens': [{'id': '4f6a9b0baa754e2fbf2e365da907a3c5', 'gmtCreate': '2018-09-26 10:40:56', 'gmtModified': '2018-11-01 10:32:58', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': 'icon_xitongcanshu.png', 'menuName': '系统参数', 'menuNavigateUrl': '/loyout7', 'menuRemark': '', 'menuSort': 33, 'parentId': '1', 'userCreate': '453a21c19e6543478dabc90342507037', 'userModified': '23dbf529-225d-4af8-9687-40a55962a78a', 'childrens': [{'id': '5862853ea02e4d60afce9bf9fbd1238c', 'gmtCreate': '2019-01-18 16:25:32', 'gmtModified': '2019-01-18 16:25:32', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': '13', 'menuName': '小票设置', 'menuNavigateUrl': '/layout/systemParams/receipt', 'menuRemark': '', 'menuSort': 13, 'parentId': '4f6a9b0baa754e2fbf2e365da907a3c5', 'userCreate': '23dbf529-225d-4af8-9687-40a55962a78a', 'userModified': '23dbf529-225d-4af8-9687-40a55962a78a', 'childrens': None}, {'id': '536c2ab672da443ab5927de4042f5ca1', 'gmtCreate': '2018-09-26 10:41:58', 'gmtModified': '2018-10-18 15:28:19', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': '', 'menuName': '收银设置', 'menuNavigateUrl': '/layout/systemParams/cashier', 'menuRemark': '', 'menuSort': 11, 'parentId': '4f6a9b0baa754e2fbf2e365da907a3c5', 'userCreate': '453a21c19e6543478dabc90342507037', 'userModified': '453a21c19e6543478dabc90342507037', 'childrens': None}, {'id': 'a4f48388efa642f2814127a55346d198', 'gmtCreate': '2018-09-26 10:47:19', 'gmtModified': '2018-10-18 15:28:24', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': '1', 'menuName': '积分设置', 'menuNavigateUrl': '/layout/systemParams/integral', 'menuRemark': '', 'menuSort': 3, 'parentId': '4f6a9b0baa754e2fbf2e365da907a3c5', 'userCreate': '453a21c19e6543478dabc90342507037', 'userModified': '453a21c19e6543478dabc90342507037', 'childrens': None}]}, {'id': 'd818fa081e714d39a0b78b78b98a7f07', 'gmtCreate': '2018-09-20 15:55:18', 'gmtModified': '2018-11-01 10:32:35', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': 'icon_shouyin.png', 'menuName': '收银台', 'menuNavigateUrl': '/loyout6', 'menuRemark': '', 'menuSort': 6, 'parentId': '1', 'userCreate': '453a21c19e6543478dabc90342507037', 'userModified': '23dbf529-225d-4af8-9687-40a55962a78a', 'childrens': [{'id': '882c26bfdf3b4c0e90a89e245e27fe43', 'gmtCreate': '2018-09-20 15:56:14', 'gmtModified': '2018-10-23 16:18:29', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': '', 'menuName': '收银', 'menuNavigateUrl': '/layout/cashDesk/cashier', 'menuRemark': '', 'menuSort': 66, 'parentId': 'd818fa081e714d39a0b78b78b98a7f07', 'userCreate': '453a21c19e6543478dabc90342507037', 'userModified': '453a21c19e6543478dabc90342507037', 'childrens': None}, {'id': 'bd79ce10996b4bcd8339135a640eccaf', 'gmtCreate': '2018-09-20 15:57:44', 'gmtModified': '2018-10-23 16:18:21', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': '', 'menuName': '开卡', 'menuNavigateUrl': '/layout/cashDesk/activateCard', 'menuRemark': '', 'menuSort': 65, 'parentId': 'd818fa081e714d39a0b78b78b98a7f07', 'userCreate': '453a21c19e6543478dabc90342507037', 'userModified': '453a21c19e6543478dabc90342507037', 'childrens': None}]}, {'id': '21d8edf7badc4569a38316fd914334e8', 'gmtCreate': '2018-09-06 14:22:36', 'gmtModified': '2018-09-06 14:22:36', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': 'icon_quanxianguanli.png', 'menuName': '权限管理', 'menuNavigateUrl': '/loyout5', 'menuRemark': '', 'menuSort': 5, 'parentId': '1', 'userCreate': '1234', 'userModified': '1234', 'childrens': [{'id': '5a9df71c7b8e4f9182af7f92f483847e', 'gmtCreate': '2018-09-06 14:22:37', 'gmtModified': '2018-09-06 14:22:37', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': '', 'menuName': '权限组设置', 'menuNavigateUrl': '/layout/system/groupConf', 'menuRemark': '', 'menuSort': 53, 'parentId': '21d8edf7badc4569a38316fd914334e8', 'userCreate': '1234', 'userModified': '1234', 'childrens': None}, {'id': 'ccd74f12bf734a1dacf5cbbf61494f42', 'gmtCreate': '2018-09-06 14:22:41', 'gmtModified': '2018-09-06 14:22:41', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': '', 'menuName': '员工账号管理', 'menuNavigateUrl': '/layout/system/accountManage', 'menuRemark': '', 'menuSort': 52, 'parentId': '21d8edf7badc4569a38316fd914334e8', 'userCreate': '1234', 'userModified': '1234', 'childrens': None}, {'id': '72dd199bbc704b739c1976132258d2f3', 'gmtCreate': '2019-03-15 14:28:08', 'gmtModified': '2019-03-15 14:28:08', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': '222', 'menuName': '密码设置', 'menuNavigateUrl': '/layout/system/setPassword', 'menuRemark': '', 'menuSort': 50, 'parentId': '21d8edf7badc4569a38316fd914334e8', 'userCreate': '23dbf529-225d-4af8-9687-40a55962a78a', 'userModified': '23dbf529-225d-4af8-9687-40a55962a78a', 'childrens': None}]}, {'id': '867cdd66489d4f4b91a9abf77f4a25c0', 'gmtCreate': '2018-09-06 14:22:39', 'gmtModified': '2018-09-06 14:22:39', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': 'icon_mendianshezhi.png', 'menuName': '门店设置', 'menuNavigateUrl': '/loyout4', 'menuRemark': '', 'menuSort': 4, 'parentId': '1', 'userCreate': '1234', 'userModified': '1234', 'childrens': [{'id': '799b9f61606f44babed2e84016f40888', 'gmtCreate': '2019-01-18 16:05:41', 'gmtModified': '2019-01-18 16:05:41', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': 'shopInfo', 'menuName': '门店基础信息', 'menuNavigateUrl': '/layout/shop/shopInfo', 'menuRemark': '', 'menuSort': 44, 'parentId': '867cdd66489d4f4b91a9abf77f4a25c0', 'userCreate': '23dbf529-225d-4af8-9687-40a55962a78a', 'userModified': '23dbf529-225d-4af8-9687-40a55962a78a', 'childrens': None}, {'id': 'f739889f887b4607bb4aa39af5414c71', 'gmtCreate': '2018-09-06 14:22:43', 'gmtModified': '2018-09-06 14:22:43', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': '', 'menuName': '会员卡设置', 'menuNavigateUrl': '/layout/shop/clubcardset', 'menuRemark': '', 'menuSort': 43, 'parentId': '867cdd66489d4f4b91a9abf77f4a25c0', 'userCreate': '1234', 'userModified': '1234', 'childrens': None}, {'id': '43ffc396e6ce4ecdb466a00d7b1842ed', 'gmtCreate': '2018-09-06 14:22:36', 'gmtModified': '2018-09-06 14:22:36', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': '', 'menuName': '客户来源设置', 'menuNavigateUrl': '/layout/shop/customeSource', 'menuRemark': '', 'menuSort': 42, 'parentId': '867cdd66489d4f4b91a9abf77f4a25c0', 'userCreate': '1234', 'userModified': '1234', 'childrens': None}, {'id': 'a2a42f7be6d74bc19a909c6cec44a368', 'gmtCreate': '2018-09-06 14:22:40', 'gmtModified': '2018-09-06 14:22:40', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': '', 'menuName': '员工设置', 'menuNavigateUrl': '/layout/shop/staffSet', 'menuRemark': '', 'menuSort': 41, 'parentId': '867cdd66489d4f4b91a9abf77f4a25c0', 'userCreate': '1234', 'userModified': '1234', 'childrens': None}]}, {'id': 'f30d1677d92e4a898529bf6c7531890d', 'gmtCreate': '2018-09-06 14:23:01', 'gmtModified': '2018-09-06 14:23:01', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': 'icon_chanpingshezhi.png', 'menuName': '产品设置', 'menuNavigateUrl': '/layout3', 'menuRemark': '', 'menuSort': 3, 'parentId': '1', 'userCreate': '1234', 'userModified': '1234', 'childrens': [{'id': 'ed393817d9a54874bb91cad524dfb17f', 'gmtCreate': '2018-09-06 14:22:59', 'gmtModified': '2018-09-06 14:22:59', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': '', 'menuName': '产品列表', 'menuNavigateUrl': '/layout/shop/productlist', 'menuRemark': '', 'menuSort': 31, 'parentId': 'f30d1677d92e4a898529bf6c7531890d', 'userCreate': '1234', 'userModified': '1234', 'childrens': None}]}, {'id': '7221a47a327a42f9864854b7a381f0df', 'gmtCreate': '2018-09-06 14:22:54', 'gmtModified': '2018-09-06 14:22:54', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': 'icon_xiangmushezhi.png', 'menuName': '项目设置', 'menuNavigateUrl': '/layout2', 'menuRemark': '', 'menuSort': 2, 'parentId': '1', 'userCreate': '1234', 'userModified': '1234', 'childrens': [{'id': 'c353ade88dcd48b9a7fcf86a298c7d05', 'gmtCreate': '2018-09-06 14:23:03', 'gmtModified': '2018-09-06 14:23:03', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': '', 'menuName': '项目列表', 'menuNavigateUrl': '/layout/shop/projectlist', 'menuRemark': '', 'menuSort': 21, 'parentId': '7221a47a327a42f9864854b7a381f0df', 'userCreate': '1234', 'userModified': '1234', 'childrens': None}]}, {'id': '0b8deaf08ed849829970d22fe2ca69bb', 'gmtCreate': '2018-09-20 15:17:57', 'gmtModified': '2018-11-01 10:33:47', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': 'icon_huiyuanleibiao.png', 'menuName': '会员管理', 'menuNavigateUrl': '/member', 'menuRemark': '', 'menuSort': 1, 'parentId': '1', 'userCreate': '1234', 'userModified': '23dbf529-225d-4af8-9687-40a55962a78a', 'childrens': [{'id': 'b9d6f11e4de5465986f5113a222f1af4', 'gmtCreate': '2018-09-25 17:44:36', 'gmtModified': '2018-10-29 14:52:25', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': '/', 'menuName': '散客列表', 'menuNavigateUrl': '/layout/member/ndividualtraveler', 'menuRemark': '', 'menuSort': 99, 'parentId': '0b8deaf08ed849829970d22fe2ca69bb', 'userCreate': '1234', 'userModified': '1234', 'childrens': None}, {'id': '18221267c97e4ce39d126f8604e2d353', 'gmtCreate': '2018-09-21 09:19:42', 'gmtModified': '2018-10-29 14:52:23', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': '123', 'menuName': '会员列表', 'menuNavigateUrl': '/layout/member/memberList', 'menuRemark': '', 'menuSort': 55, 'parentId': '0b8deaf08ed849829970d22fe2ca69bb', 'userCreate': '1234', 'userModified': '1234', 'childrens': None}, {'id': '8ba204848e86461f8c923be61fef2be5', 'gmtCreate': '2018-09-20 15:29:44', 'gmtModified': '2018-10-29 14:52:18', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': '/', 'menuName': '会员卡列表', 'menuNavigateUrl': '/layout/member/memberCardList', 'menuRemark': '', 'menuSort': 55, 'parentId': '0b8deaf08ed849829970d22fe2ca69bb', 'userCreate': '1234', 'userModified': '1234', 'childrens': None}]}, {'id': '8a777568dcfe4d68a912ce8b2d8a2153', 'gmtCreate': '2018-09-06 14:23:06', 'gmtModified': '2018-09-06 14:23:06', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': 'icon_liaochengtaocanshezhi.png', 'menuName': '疗程套餐设置', 'menuNavigateUrl': '/layout1', 'menuRemark': '', 'menuSort': 1, 'parentId': '1', 'userCreate': '1234', 'userModified': '1234', 'childrens': [{'id': '35729f5f0db14331a2f0779f99c5df62', 'gmtCreate': '2018-09-06 14:23:08', 'gmtModified': '2018-09-06 14:23:08', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': '', 'menuName': '疗程套餐列表', 'menuNavigateUrl': '/layout/shop/treatmentlist', 'menuRemark': '', 'menuSort': 11, 'parentId': '8a777568dcfe4d68a912ce8b2d8a2153', 'userCreate': '1234', 'userModified': '1234', 'childrens': None}]}, {'id': '19fe722cf808460b856f5ab0e98c8aa3', 'gmtCreate': '2018-10-19 15:12:22', 'gmtModified': '2019-03-07 17:33:30', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': 'icon_sankeliebiao.png', 'menuName': '营业记录', 'menuNavigateUrl': '/layout12', 'menuRemark': '', 'menuSort': 0, 'parentId': '1', 'userCreate': '453a21c19e6543478dabc90342507037', 'userModified': '23dbf529-225d-4af8-9687-40a55962a78a', 'childrens': [{'id': '2c136cf04dad44a5b1beb1c1aebb4848', 'gmtCreate': '2018-10-19 15:14:53', 'gmtModified': '2018-10-29 14:56:12', 'isDefaultMenu': 1, 'isHeadquartersRead': 0, 'menuImageUrl': '122', 'menuName': '水单列表', 'menuNavigateUrl': '/layout/data/bankReceiptList', 'menuRemark': '', 'menuSort': 12, 'parentId': '19fe722cf808460b856f5ab0e98c8aa3', 'userCreate': '453a21c19e6543478dabc90342507037', 'userModified': '453a21c19e6543478dabc90342507037', 'childrens': None}]}, {'id': '1e1bd940f43b4059a5b5b99bcf95a196', 'gmtCreate': '2019-03-15 14:25:35', 'gmtModified': '2019-03-15 14:25:35', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': 'icon_sankeliebiao.png', 'menuName': '财务报表', 'menuNavigateUrl': 'layout', 'menuRemark': '', 'menuSort': 0, 'parentId': '1', 'userCreate': '23dbf529-225d-4af8-9687-40a55962a78a', 'userModified': '23dbf529-225d-4af8-9687-40a55962a78a', 'childrens': [{'id': '66fc38887ffa4910a4be0baf8c47f31d', 'gmtCreate': '2019-03-15 14:26:10', 'gmtModified': '2019-03-15 14:26:38', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': 'ccc', 'menuName': '会员财务报表', 'menuNavigateUrl': '/layout/data/memberReport', 'menuRemark': '', 'menuSort': 5, 'parentId': '1e1bd940f43b4059a5b5b99bcf95a196', 'userCreate': '23dbf529-225d-4af8-9687-40a55962a78a', 'userModified': '23dbf529-225d-4af8-9687-40a55962a78a', 'childrens': None}, {'id': 'f52d9292457447dca310a4183e0c5ad2', 'gmtCreate': '2019-03-15 14:27:25', 'gmtModified': '2019-03-15 15:42:10', 'isDefaultMenu': 0, 'isHeadquartersRead': 0, 'menuImageUrl': '222', 'menuName': '会员卡财务报表', 'menuNavigateUrl': '/layout/data/memberCardReport', 'menuRemark': '', 'menuSort': 4, 'parentId': '1e1bd940f43b4059a5b5b99bcf95a196', 'userCreate': '23dbf529-225d-4af8-9687-40a55962a78a', 'userModified': '23dbf529-225d-4af8-9687-40a55962a78a', 'childrens': None}]}]}], 'systemPowerVOs': [{'powerGroupName': '全部', 'powers': [{'id': '137f4105fed745c6996cee087173883e', 'gmtCreate': '2018-08-22 11:33:41', 'gmtModified': '2018-12-20 17:21:54', 'isDeleted': 0, 'powerGroupName': '全部', 'powerName': '允许门店自主添加产品', 'powerRemark': '', 'powerTitle': '允许门店自主添加产品', 'userCreate': '1234', 'userModified': '1234'}, {'id': 'c9b1282b4b964e8f8636c27c77fe7c5c', 'gmtCreate': '2018-08-22 15:46:13', 'gmtModified': '2018-12-20 17:21:54', 'isDeleted': 0, 'powerGroupName': '全部', 'powerName': '允许门店自主添加项目', 'powerRemark': '', 'powerTitle': '允许门店自主添加项目', 'userCreate': '1234', 'userModified': '1234'}, {'id': 'cc24f6df31694cb8938cee482b01d988', 'gmtCreate': '2018-08-22 15:46:13', 'gmtModified': '2018-12-20 17:21:54', 'isDeleted': 0, 'powerGroupName': '全部', 'powerName': '允许门店自主添加疗程套餐', 'powerRemark': '', 'powerTitle': '允许门店自主添加疗程套餐', 'userCreate': '1234', 'userModified': '1234'}]}]}}</t>
+          <t>{'status': 507, 'message': 'token error', 'data': None}</t>
         </is>
       </c>
       <c r="I3" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="22.9" r="4">
+    <row customHeight="1" ht="22.95" r="4">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>权限管理</t>
+          <t>login</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -529,22 +529,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'status': 200, 'message': 'OK', 'data': {'page': 0, 'size': 10, 'data': [], 'totalCount': 0, 'totalPages': 0}}</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="22.9" r="5">
+          <t>{'status': 507, 'message': 'token error', 'data': None}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="22.95" r="5">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>权限管理</t>
+          <t>login</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -567,12 +567,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{'status': 200, 'message': 'OK', 'data': {'page': 0, 'size': 10, 'data': [{'id': '3957b652a6214c0093f03826ee842e06', 'gmtCreate': '2019-01-23 16:45:48', 'gmtModified': '2019-01-24 17:32:38', 'isAllowUpdate': 0, 'isDeleted': 0, 'roleName': '默认权限', 'roleRemark': '', 'shopId': 'd90c7afd096e473e92bc3342bb6be43f', 'userCreate': '453a21c19e6543478dabc90342507037', 'userModified': '75ac1fd4f7cc427382e91e225f6681e1'}, {'id': '6f7194555c7d422d8a33b3f20e01ffe6', 'gmtCreate': '2019-03-27 18:09:27', 'gmtModified': '2019-03-27 18:09:27', 'isAllowUpdate': 1, 'isDeleted': 0, 'roleName': 'test18:09:20', 'roleRemark': '', 'shopId': 'd90c7afd096e473e92bc3342bb6be43f', 'userCreate': '75ac1fd4f7cc427382e91e225f6681e1', 'userModified': '75ac1fd4f7cc427382e91e225f6681e1'}, {'id': 'c792849260594d7e9eec428fa17a6db8', 'gmtCreate': '2019-02-26 09:49:49', 'gmtModified': '2019-02-26 09:49:49', 'isAllowUpdate': 1, 'isDeleted': 0, 'roleName': 'test09:50:00', 'roleRemark': '', 'shopId': 'd90c7afd096e473e92bc3342bb6be43f', 'userCreate': '75ac1fd4f7cc427382e91e225f6681e1', 'userModified': '75ac1fd4f7cc427382e91e225f6681e1'}], 'totalCount': 3, 'totalPages': 1}}</t>
+          <t>{'status': 507, 'message': 'token error', 'data': None}</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       <selection activeCell="A1" pane="bottomRight" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="58.375" defaultRowHeight="24.6"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="58.33203125" defaultRowHeight="24.6"/>
   <sheetData>
     <row customHeight="1" ht="24.6" r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -693,9 +693,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.875" defaultRowHeight="20.25"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.88671875" defaultRowHeight="20.25"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="41.625"/>
+    <col customWidth="1" max="2" min="2" width="41.6640625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20.25" r="1">
@@ -716,11 +716,7 @@
           <t>token</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>a7f58c47-92ca-4d3a-904c-8e08a36afef5</t>
-        </is>
-      </c>
+      <c r="B2" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="20.25" r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -730,7 +726,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>ad07560f-84ba-40db-9109-45136ea19ba7</t>
+          <t>44f6878c-3fb7-4763-b67d-cf444dcb5b0b</t>
         </is>
       </c>
     </row>
